--- a/results/sharks/M_species_tables_sharks.xlsx
+++ b/results/sharks/M_species_tables_sharks.xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,6 +650,166 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pacific sleeper_shark</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pacific sleeper_shark</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pacific sleeper_shark</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>multi_region</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pacific sleeper_shark</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pacific sleeper_shark</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -657,7 +817,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,6 +934,314 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>salmon shark</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>frisk_tmat.v1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Age at Maturity (yr)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.159</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Goldman and Music 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>salmon shark</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>frisk_tmat.v2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Age at Maturity (yr)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.172</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Goldman and Music 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>salmon shark</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>frisk_tmat.v1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Age at Maturity (yr)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.159</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Goldman and Music 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>salmon shark</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>frisk_tmat.v2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Age at Maturity (yr)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.172</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Goldman and Music 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>salmon shark</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>salmon shark</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>salmon shark</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>multi_region</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>salmon shark</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>salmon shark</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -781,7 +1249,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1416,6 +1884,166 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>spiny dogfish</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>spiny dogfish</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>spiny dogfish</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>multi_region</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>spiny dogfish</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>spiny dogfish</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
